--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3335.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3335.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.094388989292584</v>
+        <v>1.578119397163391</v>
       </c>
       <c r="B1">
-        <v>2.631165522494054</v>
+        <v>4.337272644042969</v>
       </c>
       <c r="C1">
-        <v>8.545809144771566</v>
+        <v>3.471343994140625</v>
       </c>
       <c r="D1">
-        <v>2.233933709055407</v>
+        <v>1.555417656898499</v>
       </c>
       <c r="E1">
-        <v>1.276693466633739</v>
+        <v>0.5726577043533325</v>
       </c>
     </row>
   </sheetData>
